--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_Lineal_No_Estacionario_ARIMA.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.281847280805598</v>
+        <v>0.349435015852742</v>
       </c>
       <c r="D2">
-        <v>0.778095349239678</v>
+        <v>0.7300854328946536</v>
       </c>
       <c r="E2">
         <v>16.41384028617338</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.3956312564292797</v>
+        <v>0.3834428841291662</v>
       </c>
       <c r="D3">
-        <v>0.6924273383760284</v>
+        <v>0.7050717953706505</v>
       </c>
       <c r="E3">
         <v>16.41384028617338</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.9235917372231498</v>
+        <v>-1.246545215702003</v>
       </c>
       <c r="D4">
-        <v>0.3558316255927125</v>
+        <v>0.2256741701118943</v>
       </c>
       <c r="E4">
         <v>16.41384028617338</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-3.250812858222953</v>
+        <v>-2.211383498326237</v>
       </c>
       <c r="D5">
-        <v>0.001173549701438237</v>
+        <v>0.03770406171492358</v>
       </c>
       <c r="E5">
         <v>16.41384028617338</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.04684112108246133</v>
+        <v>0.06929162683616527</v>
       </c>
       <c r="D6">
-        <v>0.962645425670982</v>
+        <v>0.9453834621564245</v>
       </c>
       <c r="E6">
         <v>15.94808172067344</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.378714714757049</v>
+        <v>-1.701101503154351</v>
       </c>
       <c r="D7">
-        <v>0.1681663848720221</v>
+        <v>0.1030174124732572</v>
       </c>
       <c r="E7">
         <v>15.94808172067344</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-3.416724795833892</v>
+        <v>-2.586232427554077</v>
       </c>
       <c r="D8">
-        <v>0.0006489135188318951</v>
+        <v>0.01685122040904097</v>
       </c>
       <c r="E8">
         <v>15.94808172067344</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-1.461317362984737</v>
+        <v>-1.738029673946147</v>
       </c>
       <c r="D9">
-        <v>0.1441154828853108</v>
+        <v>0.0961849646668298</v>
       </c>
       <c r="E9">
         <v>15.87256177630017</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-3.333439798785885</v>
+        <v>-2.414857565502929</v>
       </c>
       <c r="D10">
-        <v>0.0008764503285250136</v>
+        <v>0.02449975151269879</v>
       </c>
       <c r="E10">
         <v>15.87256177630017</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-2.52268440888999</v>
+        <v>-1.769530255968567</v>
       </c>
       <c r="D11">
-        <v>0.011738026154273</v>
+        <v>0.09066671961494022</v>
       </c>
       <c r="E11">
         <v>18.00264881440074</v>
@@ -687,7 +687,7 @@
         <v>23.03408835922834</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>100</v>
